--- a/input/emissions-inventories/Japan/CEDS_REAS_JAPAN.xlsx
+++ b/input/emissions-inventories/Japan/CEDS_REAS_JAPAN.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26929"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10290" yWindow="135" windowWidth="11055" windowHeight="9675" activeTab="2"/>
+    <workbookView xWindow="10300" yWindow="140" windowWidth="29680" windowHeight="17560" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="BC" sheetId="11" r:id="rId1"/>
@@ -17,7 +17,12 @@
     <sheet name="CO2" sheetId="6" r:id="rId8"/>
     <sheet name="README" sheetId="14" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -82,9 +87,6 @@
   </si>
   <si>
     <t>1A3di_International-shipping</t>
-  </si>
-  <si>
-    <t>1A3dii_Domestic-naviation (shipping)</t>
   </si>
   <si>
     <t>1A3eii_Other-transp</t>
@@ -333,6 +335,9 @@
     <t xml:space="preserve">  7A_Fossil-fuel-fires</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>1A3dii_Domestic-navigation (shipping)</t>
+  </si>
 </sst>
 </file>
 
@@ -341,7 +346,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1074,7 +1079,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1109,7 +1114,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1286,7 +1291,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1301,18 +1306,18 @@
       <selection activeCell="A23" sqref="A23"/>
       <selection pane="topRight" activeCell="A23" sqref="A23"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="62" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
+    <col min="2" max="62" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1">
         <v>1950</v>
@@ -5260,7 +5265,7 @@
     </row>
     <row r="22" spans="1:62" s="2" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B22" s="2">
         <v>12.467000000000001</v>
@@ -5448,7 +5453,7 @@
     </row>
     <row r="23" spans="1:62" s="2" customFormat="1">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -5636,7 +5641,7 @@
     </row>
     <row r="24" spans="1:62" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2">
         <v>0.29337000000000002</v>
@@ -5824,7 +5829,7 @@
     </row>
     <row r="25" spans="1:62" s="2" customFormat="1">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2">
         <v>24852</v>
@@ -6012,7 +6017,7 @@
     </row>
     <row r="26" spans="1:62" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2">
         <v>2.3996</v>
@@ -6200,7 +6205,7 @@
     </row>
     <row r="27" spans="1:62" s="2" customFormat="1">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2">
         <v>6.1186999999999998E-2</v>
@@ -6388,7 +6393,7 @@
     </row>
     <row r="28" spans="1:62" s="2" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="5">
         <v>0</v>
@@ -6576,7 +6581,7 @@
     </row>
     <row r="29" spans="1:62" s="2" customFormat="1">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -6764,7 +6769,7 @@
     </row>
     <row r="30" spans="1:62" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -6952,7 +6957,7 @@
     </row>
     <row r="31" spans="1:62" s="2" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="5">
         <v>0</v>
@@ -7140,7 +7145,7 @@
     </row>
     <row r="32" spans="1:62" s="2" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="5">
         <v>0</v>
@@ -7328,7 +7333,7 @@
     </row>
     <row r="33" spans="1:62" s="2" customFormat="1">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="2">
         <v>1115.5</v>
@@ -7516,7 +7521,7 @@
     </row>
     <row r="34" spans="1:62" s="2" customFormat="1">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2">
         <v>96.34</v>
@@ -7704,7 +7709,7 @@
     </row>
     <row r="35" spans="1:62" s="2" customFormat="1">
       <c r="A35" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -7892,7 +7897,7 @@
     </row>
     <row r="36" spans="1:62" s="2" customFormat="1">
       <c r="A36" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="2">
         <v>624.79999999999995</v>
@@ -8080,7 +8085,7 @@
     </row>
     <row r="37" spans="1:62" s="2" customFormat="1">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2">
         <v>41.381999999999998</v>
@@ -8268,7 +8273,7 @@
     </row>
     <row r="38" spans="1:62" s="2" customFormat="1">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2">
         <v>4.7999999999999996E-3</v>
@@ -8456,7 +8461,7 @@
     </row>
     <row r="39" spans="1:62" s="2" customFormat="1">
       <c r="A39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -8644,7 +8649,7 @@
     </row>
     <row r="40" spans="1:62" s="2" customFormat="1">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -8832,7 +8837,7 @@
     </row>
     <row r="41" spans="1:62" s="2" customFormat="1">
       <c r="A41" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -9020,7 +9025,7 @@
     </row>
     <row r="42" spans="1:62" s="2" customFormat="1">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
@@ -9208,7 +9213,7 @@
     </row>
     <row r="43" spans="1:62" s="2" customFormat="1">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
@@ -9396,7 +9401,7 @@
     </row>
     <row r="44" spans="1:62" s="2" customFormat="1">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
@@ -9584,7 +9589,7 @@
     </row>
     <row r="45" spans="1:62" s="2" customFormat="1">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
@@ -9772,7 +9777,7 @@
     </row>
     <row r="46" spans="1:62" s="2" customFormat="1">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -9960,7 +9965,7 @@
     </row>
     <row r="47" spans="1:62" s="2" customFormat="1">
       <c r="A47" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
@@ -10148,7 +10153,7 @@
     </row>
     <row r="48" spans="1:62" s="2" customFormat="1">
       <c r="A48" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="5">
         <v>0</v>
@@ -10336,7 +10341,7 @@
     </row>
     <row r="49" spans="1:62" s="2" customFormat="1">
       <c r="A49" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="5">
         <v>0</v>
@@ -10524,7 +10529,7 @@
     </row>
     <row r="50" spans="1:62" s="2" customFormat="1">
       <c r="A50" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="5">
         <v>0</v>
@@ -10712,7 +10717,7 @@
     </row>
     <row r="51" spans="1:62" s="1" customFormat="1">
       <c r="A51" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="5">
         <v>0</v>
@@ -10900,7 +10905,7 @@
     </row>
     <row r="52" spans="1:62" s="2" customFormat="1">
       <c r="A52" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" s="5">
         <v>0</v>
@@ -11088,7 +11093,7 @@
     </row>
     <row r="53" spans="1:62" s="2" customFormat="1">
       <c r="A53" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" s="5">
         <v>0</v>
@@ -11276,7 +11281,7 @@
     </row>
     <row r="54" spans="1:62" s="2" customFormat="1">
       <c r="A54" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" s="5">
         <v>0</v>
@@ -11464,7 +11469,7 @@
     </row>
     <row r="55" spans="1:62" s="2" customFormat="1">
       <c r="A55" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="2">
         <v>0</v>
@@ -11652,7 +11657,7 @@
     </row>
     <row r="56" spans="1:62" s="2" customFormat="1">
       <c r="A56" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="2">
         <v>0</v>
@@ -11840,7 +11845,7 @@
     </row>
     <row r="57" spans="1:62" s="2" customFormat="1">
       <c r="A57" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="5">
         <v>0</v>
@@ -12028,7 +12033,7 @@
     </row>
     <row r="58" spans="1:62" s="2" customFormat="1">
       <c r="A58" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" s="5">
         <v>0</v>
@@ -12216,7 +12221,7 @@
     </row>
     <row r="59" spans="1:62">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="1">
         <f>SUM(B2:B58)</f>
@@ -12466,7 +12471,12 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12479,18 +12489,18 @@
       <selection activeCell="C41" sqref="C41"/>
       <selection pane="topRight" activeCell="C41" sqref="C41"/>
       <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="62" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
+    <col min="2" max="62" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1">
         <v>1950</v>
@@ -16438,7 +16448,7 @@
     </row>
     <row r="22" spans="1:62" s="2" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B22" s="2">
         <v>4.1136999999999997</v>
@@ -16626,7 +16636,7 @@
     </row>
     <row r="23" spans="1:62" s="2" customFormat="1">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -16814,7 +16824,7 @@
     </row>
     <row r="24" spans="1:62" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2">
         <v>0.11797000000000001</v>
@@ -17002,7 +17012,7 @@
     </row>
     <row r="25" spans="1:62" s="2" customFormat="1">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2">
         <v>77794</v>
@@ -17190,7 +17200,7 @@
     </row>
     <row r="26" spans="1:62" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2">
         <v>0.66254999999999997</v>
@@ -17378,7 +17388,7 @@
     </row>
     <row r="27" spans="1:62" s="2" customFormat="1">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2">
         <v>4.7064000000000002E-2</v>
@@ -17566,7 +17576,7 @@
     </row>
     <row r="28" spans="1:62" s="2" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="5">
         <v>0</v>
@@ -17754,7 +17764,7 @@
     </row>
     <row r="29" spans="1:62" s="2" customFormat="1">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -17942,7 +17952,7 @@
     </row>
     <row r="30" spans="1:62" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -18130,7 +18140,7 @@
     </row>
     <row r="31" spans="1:62" s="2" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="5">
         <v>0</v>
@@ -18318,7 +18328,7 @@
     </row>
     <row r="32" spans="1:62" s="2" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="5">
         <v>0</v>
@@ -18506,7 +18516,7 @@
     </row>
     <row r="33" spans="1:62" s="2" customFormat="1">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="2">
         <v>6246.8</v>
@@ -18694,7 +18704,7 @@
     </row>
     <row r="34" spans="1:62" s="2" customFormat="1">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2">
         <v>674.39</v>
@@ -18882,7 +18892,7 @@
     </row>
     <row r="35" spans="1:62" s="2" customFormat="1">
       <c r="A35" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -19070,7 +19080,7 @@
     </row>
     <row r="36" spans="1:62" s="2" customFormat="1">
       <c r="A36" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
@@ -19258,7 +19268,7 @@
     </row>
     <row r="37" spans="1:62" s="2" customFormat="1">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2">
         <v>8328.7000000000007</v>
@@ -19446,7 +19456,7 @@
     </row>
     <row r="38" spans="1:62" s="2" customFormat="1">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2">
         <v>5.1999999999999998E-2</v>
@@ -19634,7 +19644,7 @@
     </row>
     <row r="39" spans="1:62" s="2" customFormat="1">
       <c r="A39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -19822,7 +19832,7 @@
     </row>
     <row r="40" spans="1:62" s="2" customFormat="1">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -20010,7 +20020,7 @@
     </row>
     <row r="41" spans="1:62" s="2" customFormat="1">
       <c r="A41" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -20198,7 +20208,7 @@
     </row>
     <row r="42" spans="1:62" s="2" customFormat="1">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
@@ -20386,7 +20396,7 @@
     </row>
     <row r="43" spans="1:62" s="2" customFormat="1">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
@@ -20574,7 +20584,7 @@
     </row>
     <row r="44" spans="1:62" s="2" customFormat="1">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
@@ -20762,7 +20772,7 @@
     </row>
     <row r="45" spans="1:62" s="2" customFormat="1">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
@@ -20950,7 +20960,7 @@
     </row>
     <row r="46" spans="1:62" s="2" customFormat="1">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -21138,7 +21148,7 @@
     </row>
     <row r="47" spans="1:62" s="2" customFormat="1">
       <c r="A47" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
@@ -21326,7 +21336,7 @@
     </row>
     <row r="48" spans="1:62" s="2" customFormat="1">
       <c r="A48" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="5">
         <v>0</v>
@@ -21514,7 +21524,7 @@
     </row>
     <row r="49" spans="1:62" s="2" customFormat="1">
       <c r="A49" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="5">
         <v>0</v>
@@ -21702,7 +21712,7 @@
     </row>
     <row r="50" spans="1:62" s="2" customFormat="1">
       <c r="A50" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="5">
         <v>0</v>
@@ -21890,7 +21900,7 @@
     </row>
     <row r="51" spans="1:62" s="1" customFormat="1">
       <c r="A51" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="5">
         <v>0</v>
@@ -22078,7 +22088,7 @@
     </row>
     <row r="52" spans="1:62" s="2" customFormat="1">
       <c r="A52" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" s="5">
         <v>0</v>
@@ -22266,7 +22276,7 @@
     </row>
     <row r="53" spans="1:62" s="2" customFormat="1">
       <c r="A53" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" s="5">
         <v>0</v>
@@ -22454,7 +22464,7 @@
     </row>
     <row r="54" spans="1:62" s="2" customFormat="1">
       <c r="A54" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" s="5">
         <v>0</v>
@@ -22642,7 +22652,7 @@
     </row>
     <row r="55" spans="1:62" s="2" customFormat="1">
       <c r="A55" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="2">
         <v>0</v>
@@ -22830,7 +22840,7 @@
     </row>
     <row r="56" spans="1:62" s="2" customFormat="1">
       <c r="A56" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="2">
         <v>0</v>
@@ -23018,7 +23028,7 @@
     </row>
     <row r="57" spans="1:62" s="2" customFormat="1">
       <c r="A57" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="5">
         <v>0</v>
@@ -23206,7 +23216,7 @@
     </row>
     <row r="58" spans="1:62" s="2" customFormat="1">
       <c r="A58" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" s="5">
         <v>0</v>
@@ -23394,7 +23404,7 @@
     </row>
     <row r="59" spans="1:62">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="1">
         <f>SUM(B2:B58)</f>
@@ -23644,6 +23654,11 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -23651,23 +23666,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="Q20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C41" sqref="C41"/>
       <selection pane="topRight" activeCell="C41" sqref="C41"/>
       <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
-      <selection pane="bottomRight" activeCell="W36" sqref="W36"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="62" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
+    <col min="2" max="62" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1">
         <v>1950</v>
@@ -27615,7 +27630,7 @@
     </row>
     <row r="22" spans="1:62" s="2" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B22" s="2">
         <v>1992.1</v>
@@ -27803,7 +27818,7 @@
     </row>
     <row r="23" spans="1:62" s="2" customFormat="1">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -27991,7 +28006,7 @@
     </row>
     <row r="24" spans="1:62" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2">
         <v>548.51</v>
@@ -28179,7 +28194,7 @@
     </row>
     <row r="25" spans="1:62" s="2" customFormat="1">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2">
         <v>68753</v>
@@ -28367,7 +28382,7 @@
     </row>
     <row r="26" spans="1:62" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2">
         <v>916.67</v>
@@ -28555,7 +28570,7 @@
     </row>
     <row r="27" spans="1:62" s="2" customFormat="1">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2">
         <v>709.74</v>
@@ -28743,7 +28758,7 @@
     </row>
     <row r="28" spans="1:62" s="2" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="5">
         <v>0</v>
@@ -28931,7 +28946,7 @@
     </row>
     <row r="29" spans="1:62" s="2" customFormat="1">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -29119,7 +29134,7 @@
     </row>
     <row r="30" spans="1:62" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -29307,7 +29322,7 @@
     </row>
     <row r="31" spans="1:62" s="2" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="5">
         <v>0</v>
@@ -29495,7 +29510,7 @@
     </row>
     <row r="32" spans="1:62" s="2" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="5">
         <v>0</v>
@@ -29683,7 +29698,7 @@
     </row>
     <row r="33" spans="1:62" s="2" customFormat="1">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
@@ -29871,7 +29886,7 @@
     </row>
     <row r="34" spans="1:62" s="2" customFormat="1">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -30059,7 +30074,7 @@
     </row>
     <row r="35" spans="1:62" s="2" customFormat="1">
       <c r="A35" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -30247,7 +30262,7 @@
     </row>
     <row r="36" spans="1:62" s="2" customFormat="1">
       <c r="A36" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="2">
         <v>66991</v>
@@ -30435,7 +30450,7 @@
     </row>
     <row r="37" spans="1:62" s="2" customFormat="1">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -30623,7 +30638,7 @@
     </row>
     <row r="38" spans="1:62" s="2" customFormat="1">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
@@ -30811,7 +30826,7 @@
     </row>
     <row r="39" spans="1:62" s="2" customFormat="1">
       <c r="A39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -30999,7 +31014,7 @@
     </row>
     <row r="40" spans="1:62" s="6" customFormat="1">
       <c r="A40" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="6">
         <v>0</v>
@@ -31187,7 +31202,7 @@
     </row>
     <row r="41" spans="1:62" s="6" customFormat="1">
       <c r="A41" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="6">
         <v>0</v>
@@ -31375,7 +31390,7 @@
     </row>
     <row r="42" spans="1:62" s="6" customFormat="1">
       <c r="A42" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="6">
         <v>0</v>
@@ -31563,7 +31578,7 @@
     </row>
     <row r="43" spans="1:62" s="6" customFormat="1">
       <c r="A43" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="6">
         <v>0</v>
@@ -31751,7 +31766,7 @@
     </row>
     <row r="44" spans="1:62" s="6" customFormat="1">
       <c r="A44" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="6">
         <v>0</v>
@@ -31939,7 +31954,7 @@
     </row>
     <row r="45" spans="1:62" s="6" customFormat="1">
       <c r="A45" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="6">
         <v>0</v>
@@ -32127,7 +32142,7 @@
     </row>
     <row r="46" spans="1:62" s="6" customFormat="1">
       <c r="A46" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="6">
         <v>0</v>
@@ -32315,7 +32330,7 @@
     </row>
     <row r="47" spans="1:62" s="6" customFormat="1">
       <c r="A47" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="6">
         <v>0</v>
@@ -32503,7 +32518,7 @@
     </row>
     <row r="48" spans="1:62" s="2" customFormat="1">
       <c r="A48" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="5">
         <v>0</v>
@@ -32691,7 +32706,7 @@
     </row>
     <row r="49" spans="1:62" s="2" customFormat="1">
       <c r="A49" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="5">
         <v>0</v>
@@ -32879,7 +32894,7 @@
     </row>
     <row r="50" spans="1:62" s="2" customFormat="1">
       <c r="A50" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="5">
         <v>0</v>
@@ -33067,7 +33082,7 @@
     </row>
     <row r="51" spans="1:62" s="1" customFormat="1">
       <c r="A51" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="5">
         <v>0</v>
@@ -33255,7 +33270,7 @@
     </row>
     <row r="52" spans="1:62" s="2" customFormat="1">
       <c r="A52" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" s="5">
         <v>0</v>
@@ -33443,7 +33458,7 @@
     </row>
     <row r="53" spans="1:62" s="2" customFormat="1">
       <c r="A53" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" s="5">
         <v>0</v>
@@ -33631,7 +33646,7 @@
     </row>
     <row r="54" spans="1:62" s="2" customFormat="1">
       <c r="A54" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" s="5">
         <v>0</v>
@@ -33819,7 +33834,7 @@
     </row>
     <row r="55" spans="1:62" s="2" customFormat="1">
       <c r="A55" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="2">
         <v>0</v>
@@ -34007,7 +34022,7 @@
     </row>
     <row r="56" spans="1:62" s="2" customFormat="1">
       <c r="A56" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="2">
         <v>0</v>
@@ -34195,7 +34210,7 @@
     </row>
     <row r="57" spans="1:62" s="2" customFormat="1">
       <c r="A57" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="5">
         <v>0</v>
@@ -34383,7 +34398,7 @@
     </row>
     <row r="58" spans="1:62" s="2" customFormat="1">
       <c r="A58" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" s="5">
         <v>0</v>
@@ -34571,7 +34586,7 @@
     </row>
     <row r="59" spans="1:62">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="1">
         <f>SUM(B2:B58)</f>
@@ -34821,7 +34836,12 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -34834,18 +34854,18 @@
       <selection activeCell="C41" sqref="C41"/>
       <selection pane="topRight" activeCell="C41" sqref="C41"/>
       <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="62" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
+    <col min="2" max="62" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1">
         <v>1950</v>
@@ -38793,7 +38813,7 @@
     </row>
     <row r="22" spans="1:62" s="2" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B22" s="2">
         <v>4609.1000000000004</v>
@@ -38981,7 +39001,7 @@
     </row>
     <row r="23" spans="1:62" s="2" customFormat="1">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -39169,7 +39189,7 @@
     </row>
     <row r="24" spans="1:62" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2">
         <v>188.19</v>
@@ -39357,7 +39377,7 @@
     </row>
     <row r="25" spans="1:62" s="2" customFormat="1">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2">
         <v>35574</v>
@@ -39545,7 +39565,7 @@
     </row>
     <row r="26" spans="1:62" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2">
         <v>3200.3</v>
@@ -39733,7 +39753,7 @@
     </row>
     <row r="27" spans="1:62" s="2" customFormat="1">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2">
         <v>88.896000000000001</v>
@@ -39921,7 +39941,7 @@
     </row>
     <row r="28" spans="1:62" s="2" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="5">
         <v>0</v>
@@ -40109,7 +40129,7 @@
     </row>
     <row r="29" spans="1:62" s="2" customFormat="1">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -40297,7 +40317,7 @@
     </row>
     <row r="30" spans="1:62" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -40485,7 +40505,7 @@
     </row>
     <row r="31" spans="1:62" s="2" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="5">
         <v>0</v>
@@ -40673,7 +40693,7 @@
     </row>
     <row r="32" spans="1:62" s="2" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="5">
         <v>0</v>
@@ -40861,7 +40881,7 @@
     </row>
     <row r="33" spans="1:62" s="2" customFormat="1">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
@@ -41049,7 +41069,7 @@
     </row>
     <row r="34" spans="1:62" s="2" customFormat="1">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -41237,7 +41257,7 @@
     </row>
     <row r="35" spans="1:62" s="2" customFormat="1">
       <c r="A35" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -41425,7 +41445,7 @@
     </row>
     <row r="36" spans="1:62" s="2" customFormat="1">
       <c r="A36" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
@@ -41613,7 +41633,7 @@
     </row>
     <row r="37" spans="1:62" s="2" customFormat="1">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -41801,7 +41821,7 @@
     </row>
     <row r="38" spans="1:62" s="2" customFormat="1">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
@@ -41989,7 +42009,7 @@
     </row>
     <row r="39" spans="1:62" s="2" customFormat="1">
       <c r="A39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -42177,7 +42197,7 @@
     </row>
     <row r="40" spans="1:62" s="2" customFormat="1">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -42365,7 +42385,7 @@
     </row>
     <row r="41" spans="1:62" s="2" customFormat="1">
       <c r="A41" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -42553,7 +42573,7 @@
     </row>
     <row r="42" spans="1:62" s="2" customFormat="1">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
@@ -42741,7 +42761,7 @@
     </row>
     <row r="43" spans="1:62" s="2" customFormat="1">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
@@ -42929,7 +42949,7 @@
     </row>
     <row r="44" spans="1:62" s="2" customFormat="1">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
@@ -43117,7 +43137,7 @@
     </row>
     <row r="45" spans="1:62" s="2" customFormat="1">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
@@ -43305,7 +43325,7 @@
     </row>
     <row r="46" spans="1:62" s="2" customFormat="1">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -43493,7 +43513,7 @@
     </row>
     <row r="47" spans="1:62" s="2" customFormat="1">
       <c r="A47" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
@@ -43681,7 +43701,7 @@
     </row>
     <row r="48" spans="1:62" s="2" customFormat="1">
       <c r="A48" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="5">
         <v>0</v>
@@ -43869,7 +43889,7 @@
     </row>
     <row r="49" spans="1:62" s="2" customFormat="1">
       <c r="A49" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="5">
         <v>0</v>
@@ -44057,7 +44077,7 @@
     </row>
     <row r="50" spans="1:62" s="2" customFormat="1">
       <c r="A50" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="5">
         <v>0</v>
@@ -44245,7 +44265,7 @@
     </row>
     <row r="51" spans="1:62" s="1" customFormat="1">
       <c r="A51" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="5">
         <v>0</v>
@@ -44433,7 +44453,7 @@
     </row>
     <row r="52" spans="1:62" s="2" customFormat="1">
       <c r="A52" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" s="5">
         <v>0</v>
@@ -44621,7 +44641,7 @@
     </row>
     <row r="53" spans="1:62" s="2" customFormat="1">
       <c r="A53" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" s="5">
         <v>0</v>
@@ -44809,7 +44829,7 @@
     </row>
     <row r="54" spans="1:62" s="2" customFormat="1">
       <c r="A54" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" s="5">
         <v>0</v>
@@ -44997,7 +45017,7 @@
     </row>
     <row r="55" spans="1:62" s="2" customFormat="1">
       <c r="A55" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="2">
         <v>0</v>
@@ -45185,7 +45205,7 @@
     </row>
     <row r="56" spans="1:62" s="2" customFormat="1">
       <c r="A56" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="2">
         <v>0</v>
@@ -45373,7 +45393,7 @@
     </row>
     <row r="57" spans="1:62" s="2" customFormat="1">
       <c r="A57" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="5">
         <v>0</v>
@@ -45561,7 +45581,7 @@
     </row>
     <row r="58" spans="1:62" s="2" customFormat="1">
       <c r="A58" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" s="5">
         <v>0</v>
@@ -45749,7 +45769,7 @@
     </row>
     <row r="59" spans="1:62">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="1">
         <f>SUM(B2:B58)</f>
@@ -45999,7 +46019,12 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -46012,18 +46037,18 @@
       <selection activeCell="C41" sqref="C41"/>
       <selection pane="topRight" activeCell="C41" sqref="C41"/>
       <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="62" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
+    <col min="2" max="62" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1">
         <v>1950</v>
@@ -49971,7 +49996,7 @@
     </row>
     <row r="22" spans="1:62" s="2" customFormat="1">
       <c r="A22" s="4" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -50159,7 +50184,7 @@
     </row>
     <row r="23" spans="1:62" s="2" customFormat="1">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -50347,7 +50372,7 @@
     </row>
     <row r="24" spans="1:62" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2">
         <v>0.20596999999999999</v>
@@ -50535,7 +50560,7 @@
     </row>
     <row r="25" spans="1:62" s="2" customFormat="1">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2">
         <v>25015</v>
@@ -50723,7 +50748,7 @@
     </row>
     <row r="26" spans="1:62" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2">
         <v>8.8705999999999993E-2</v>
@@ -50911,7 +50936,7 @@
     </row>
     <row r="27" spans="1:62" s="2" customFormat="1">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2">
         <v>0.19048999999999999</v>
@@ -51099,7 +51124,7 @@
     </row>
     <row r="28" spans="1:62" s="2" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="5">
         <v>0</v>
@@ -51287,7 +51312,7 @@
     </row>
     <row r="29" spans="1:62" s="2" customFormat="1">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -51475,7 +51500,7 @@
     </row>
     <row r="30" spans="1:62" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -51663,7 +51688,7 @@
     </row>
     <row r="31" spans="1:62" s="2" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="5">
         <v>0</v>
@@ -51851,7 +51876,7 @@
     </row>
     <row r="32" spans="1:62" s="2" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="5">
         <v>0</v>
@@ -52039,7 +52064,7 @@
     </row>
     <row r="33" spans="1:62" s="2" customFormat="1">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
@@ -52227,7 +52252,7 @@
     </row>
     <row r="34" spans="1:62" s="2" customFormat="1">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -52415,7 +52440,7 @@
     </row>
     <row r="35" spans="1:62" s="2" customFormat="1">
       <c r="A35" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -52603,7 +52628,7 @@
     </row>
     <row r="36" spans="1:62" s="2" customFormat="1">
       <c r="A36" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="2">
         <v>855.41</v>
@@ -52791,7 +52816,7 @@
     </row>
     <row r="37" spans="1:62" s="2" customFormat="1">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -52979,7 +53004,7 @@
     </row>
     <row r="38" spans="1:62" s="2" customFormat="1">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
@@ -53167,7 +53192,7 @@
     </row>
     <row r="39" spans="1:62" s="2" customFormat="1">
       <c r="A39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -53355,7 +53380,7 @@
     </row>
     <row r="40" spans="1:62" s="2" customFormat="1">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -53543,7 +53568,7 @@
     </row>
     <row r="41" spans="1:62" s="2" customFormat="1">
       <c r="A41" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -53731,7 +53756,7 @@
     </row>
     <row r="42" spans="1:62" s="2" customFormat="1">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
@@ -53919,7 +53944,7 @@
     </row>
     <row r="43" spans="1:62" s="2" customFormat="1">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
@@ -54107,7 +54132,7 @@
     </row>
     <row r="44" spans="1:62" s="2" customFormat="1">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
@@ -54295,7 +54320,7 @@
     </row>
     <row r="45" spans="1:62" s="2" customFormat="1">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
@@ -54483,7 +54508,7 @@
     </row>
     <row r="46" spans="1:62" s="2" customFormat="1">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="2">
         <v>72990</v>
@@ -54671,7 +54696,7 @@
     </row>
     <row r="47" spans="1:62" s="2" customFormat="1">
       <c r="A47" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="2">
         <v>79440</v>
@@ -54859,7 +54884,7 @@
     </row>
     <row r="48" spans="1:62" s="2" customFormat="1">
       <c r="A48" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="5">
         <v>0</v>
@@ -55047,7 +55072,7 @@
     </row>
     <row r="49" spans="1:62" s="2" customFormat="1">
       <c r="A49" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="5">
         <v>0</v>
@@ -55235,7 +55260,7 @@
     </row>
     <row r="50" spans="1:62" s="2" customFormat="1">
       <c r="A50" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="5">
         <v>0</v>
@@ -55423,7 +55448,7 @@
     </row>
     <row r="51" spans="1:62" s="1" customFormat="1">
       <c r="A51" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="5">
         <v>0</v>
@@ -55611,7 +55636,7 @@
     </row>
     <row r="52" spans="1:62" s="2" customFormat="1">
       <c r="A52" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" s="5">
         <v>0</v>
@@ -55799,7 +55824,7 @@
     </row>
     <row r="53" spans="1:62" s="2" customFormat="1">
       <c r="A53" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" s="5">
         <v>0</v>
@@ -55987,7 +56012,7 @@
     </row>
     <row r="54" spans="1:62" s="2" customFormat="1">
       <c r="A54" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" s="5">
         <v>0</v>
@@ -56175,7 +56200,7 @@
     </row>
     <row r="55" spans="1:62" s="2" customFormat="1">
       <c r="A55" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="2">
         <v>20918</v>
@@ -56363,7 +56388,7 @@
     </row>
     <row r="56" spans="1:62" s="2" customFormat="1">
       <c r="A56" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="2">
         <v>120680</v>
@@ -56551,7 +56576,7 @@
     </row>
     <row r="57" spans="1:62" s="2" customFormat="1">
       <c r="A57" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="5">
         <v>0</v>
@@ -56739,7 +56764,7 @@
     </row>
     <row r="58" spans="1:62" s="2" customFormat="1">
       <c r="A58" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" s="5">
         <v>0</v>
@@ -56927,7 +56952,7 @@
     </row>
     <row r="59" spans="1:62">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="1">
         <f>SUM(B2:B58)</f>
@@ -57177,6 +57202,11 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -57189,18 +57219,18 @@
       <selection activeCell="C41" sqref="C41"/>
       <selection pane="topRight" activeCell="C41" sqref="C41"/>
       <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="62" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
+    <col min="2" max="62" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1">
         <v>1950</v>
@@ -61148,7 +61178,7 @@
     </row>
     <row r="22" spans="1:62" s="2" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B22" s="2">
         <v>546.46</v>
@@ -61336,7 +61366,7 @@
     </row>
     <row r="23" spans="1:62" s="2" customFormat="1">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -61524,7 +61554,7 @@
     </row>
     <row r="24" spans="1:62" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2">
         <v>219.61</v>
@@ -61712,7 +61742,7 @@
     </row>
     <row r="25" spans="1:62" s="2" customFormat="1">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2">
         <v>3885000</v>
@@ -61900,7 +61930,7 @@
     </row>
     <row r="26" spans="1:62" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2">
         <v>242.15</v>
@@ -62088,7 +62118,7 @@
     </row>
     <row r="27" spans="1:62" s="2" customFormat="1">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2">
         <v>20.318999999999999</v>
@@ -62276,7 +62306,7 @@
     </row>
     <row r="28" spans="1:62" s="2" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="5">
         <v>0</v>
@@ -62464,7 +62494,7 @@
     </row>
     <row r="29" spans="1:62" s="2" customFormat="1">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -62652,7 +62682,7 @@
     </row>
     <row r="30" spans="1:62" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -62840,7 +62870,7 @@
     </row>
     <row r="31" spans="1:62" s="2" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="5">
         <v>0</v>
@@ -63028,7 +63058,7 @@
     </row>
     <row r="32" spans="1:62" s="2" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="5">
         <v>0</v>
@@ -63216,7 +63246,7 @@
     </row>
     <row r="33" spans="1:62" s="2" customFormat="1">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
@@ -63404,7 +63434,7 @@
     </row>
     <row r="34" spans="1:62" s="2" customFormat="1">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -63592,7 +63622,7 @@
     </row>
     <row r="35" spans="1:62" s="2" customFormat="1">
       <c r="A35" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -63780,7 +63810,7 @@
     </row>
     <row r="36" spans="1:62" s="2" customFormat="1">
       <c r="A36" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
@@ -63968,7 +63998,7 @@
     </row>
     <row r="37" spans="1:62" s="2" customFormat="1">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2">
         <v>6039.8</v>
@@ -64156,7 +64186,7 @@
     </row>
     <row r="38" spans="1:62" s="2" customFormat="1">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
@@ -64344,7 +64374,7 @@
     </row>
     <row r="39" spans="1:62" s="2" customFormat="1">
       <c r="A39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -64532,7 +64562,7 @@
     </row>
     <row r="40" spans="1:62" s="2" customFormat="1">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -64720,7 +64750,7 @@
     </row>
     <row r="41" spans="1:62" s="2" customFormat="1">
       <c r="A41" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -64908,7 +64938,7 @@
     </row>
     <row r="42" spans="1:62" s="2" customFormat="1">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
@@ -65096,7 +65126,7 @@
     </row>
     <row r="43" spans="1:62" s="2" customFormat="1">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
@@ -65284,7 +65314,7 @@
     </row>
     <row r="44" spans="1:62" s="2" customFormat="1">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
@@ -65472,7 +65502,7 @@
     </row>
     <row r="45" spans="1:62" s="2" customFormat="1">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
@@ -65660,7 +65690,7 @@
     </row>
     <row r="46" spans="1:62" s="2" customFormat="1">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -65848,7 +65878,7 @@
     </row>
     <row r="47" spans="1:62" s="2" customFormat="1">
       <c r="A47" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
@@ -66036,7 +66066,7 @@
     </row>
     <row r="48" spans="1:62" s="2" customFormat="1">
       <c r="A48" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="5">
         <v>0</v>
@@ -66224,7 +66254,7 @@
     </row>
     <row r="49" spans="1:62" s="2" customFormat="1">
       <c r="A49" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="5">
         <v>0</v>
@@ -66412,7 +66442,7 @@
     </row>
     <row r="50" spans="1:62" s="2" customFormat="1">
       <c r="A50" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="5">
         <v>0</v>
@@ -66600,7 +66630,7 @@
     </row>
     <row r="51" spans="1:62" s="1" customFormat="1">
       <c r="A51" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="5">
         <v>0</v>
@@ -66788,7 +66818,7 @@
     </row>
     <row r="52" spans="1:62" s="2" customFormat="1">
       <c r="A52" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" s="5">
         <v>0</v>
@@ -66976,7 +67006,7 @@
     </row>
     <row r="53" spans="1:62" s="2" customFormat="1">
       <c r="A53" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" s="5">
         <v>0</v>
@@ -67164,7 +67194,7 @@
     </row>
     <row r="54" spans="1:62" s="2" customFormat="1">
       <c r="A54" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" s="5">
         <v>0</v>
@@ -67352,7 +67382,7 @@
     </row>
     <row r="55" spans="1:62" s="2" customFormat="1">
       <c r="A55" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="2">
         <v>0</v>
@@ -67540,7 +67570,7 @@
     </row>
     <row r="56" spans="1:62" s="2" customFormat="1">
       <c r="A56" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="2">
         <v>0</v>
@@ -67728,7 +67758,7 @@
     </row>
     <row r="57" spans="1:62" s="2" customFormat="1">
       <c r="A57" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="5">
         <v>0</v>
@@ -67916,7 +67946,7 @@
     </row>
     <row r="58" spans="1:62" s="2" customFormat="1">
       <c r="A58" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" s="5">
         <v>0</v>
@@ -68104,7 +68134,7 @@
     </row>
     <row r="59" spans="1:62">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="1">
         <f>SUM(B2:B58)</f>
@@ -68354,6 +68384,11 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -68366,18 +68401,18 @@
       <selection activeCell="C41" sqref="C41"/>
       <selection pane="topRight" activeCell="C41" sqref="C41"/>
       <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="62" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
+    <col min="2" max="62" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1">
         <v>1950</v>
@@ -72325,7 +72360,7 @@
     </row>
     <row r="22" spans="1:62" s="2" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B22" s="2">
         <v>126.3</v>
@@ -72513,7 +72548,7 @@
     </row>
     <row r="23" spans="1:62" s="2" customFormat="1">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -72701,7 +72736,7 @@
     </row>
     <row r="24" spans="1:62" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2">
         <v>3.8206000000000002</v>
@@ -72889,7 +72924,7 @@
     </row>
     <row r="25" spans="1:62" s="2" customFormat="1">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2">
         <v>78616</v>
@@ -73077,7 +73112,7 @@
     </row>
     <row r="26" spans="1:62" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2">
         <v>62.512</v>
@@ -73265,7 +73300,7 @@
     </row>
     <row r="27" spans="1:62" s="2" customFormat="1">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2">
         <v>3.5773000000000001</v>
@@ -73453,7 +73488,7 @@
     </row>
     <row r="28" spans="1:62" s="2" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="5">
         <v>0</v>
@@ -73641,7 +73676,7 @@
     </row>
     <row r="29" spans="1:62" s="2" customFormat="1">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2">
         <v>1607.2</v>
@@ -73829,7 +73864,7 @@
     </row>
     <row r="30" spans="1:62" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2">
         <v>45.05</v>
@@ -74017,7 +74052,7 @@
     </row>
     <row r="31" spans="1:62" s="2" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="5">
         <v>0</v>
@@ -74205,7 +74240,7 @@
     </row>
     <row r="32" spans="1:62" s="2" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="5">
         <v>0</v>
@@ -74393,7 +74428,7 @@
     </row>
     <row r="33" spans="1:62" s="2" customFormat="1">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
@@ -74581,7 +74616,7 @@
     </row>
     <row r="34" spans="1:62" s="2" customFormat="1">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -74769,7 +74804,7 @@
     </row>
     <row r="35" spans="1:62" s="2" customFormat="1">
       <c r="A35" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -74957,7 +74992,7 @@
     </row>
     <row r="36" spans="1:62" s="2" customFormat="1">
       <c r="A36" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="2">
         <v>282.36</v>
@@ -75145,7 +75180,7 @@
     </row>
     <row r="37" spans="1:62" s="2" customFormat="1">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2">
         <v>0.56930000000000003</v>
@@ -75333,7 +75368,7 @@
     </row>
     <row r="38" spans="1:62" s="2" customFormat="1">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
@@ -75521,7 +75556,7 @@
     </row>
     <row r="39" spans="1:62" s="2" customFormat="1">
       <c r="A39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -75709,7 +75744,7 @@
     </row>
     <row r="40" spans="1:62" s="2" customFormat="1">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="2">
         <v>889.8</v>
@@ -75897,7 +75932,7 @@
     </row>
     <row r="41" spans="1:62" s="2" customFormat="1">
       <c r="A41" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2">
         <v>2164.1</v>
@@ -76085,7 +76120,7 @@
     </row>
     <row r="42" spans="1:62" s="2" customFormat="1">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="2">
         <v>579.86</v>
@@ -76273,7 +76308,7 @@
     </row>
     <row r="43" spans="1:62" s="2" customFormat="1">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2">
         <v>624.16</v>
@@ -76461,7 +76496,7 @@
     </row>
     <row r="44" spans="1:62" s="2" customFormat="1">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="2">
         <v>373.4</v>
@@ -76649,7 +76684,7 @@
     </row>
     <row r="45" spans="1:62" s="2" customFormat="1">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="2">
         <v>740.1</v>
@@ -76837,7 +76872,7 @@
     </row>
     <row r="46" spans="1:62" s="2" customFormat="1">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -77025,7 +77060,7 @@
     </row>
     <row r="47" spans="1:62" s="2" customFormat="1">
       <c r="A47" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
@@ -77213,7 +77248,7 @@
     </row>
     <row r="48" spans="1:62" s="2" customFormat="1">
       <c r="A48" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="5">
         <v>0</v>
@@ -77401,7 +77436,7 @@
     </row>
     <row r="49" spans="1:62" s="2" customFormat="1">
       <c r="A49" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="5">
         <v>0</v>
@@ -77589,7 +77624,7 @@
     </row>
     <row r="50" spans="1:62" s="2" customFormat="1">
       <c r="A50" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="5">
         <v>0</v>
@@ -77777,7 +77812,7 @@
     </row>
     <row r="51" spans="1:62" s="1" customFormat="1">
       <c r="A51" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="5">
         <v>0</v>
@@ -77965,7 +78000,7 @@
     </row>
     <row r="52" spans="1:62" s="2" customFormat="1">
       <c r="A52" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" s="5">
         <v>0</v>
@@ -78153,7 +78188,7 @@
     </row>
     <row r="53" spans="1:62" s="2" customFormat="1">
       <c r="A53" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" s="5">
         <v>0</v>
@@ -78341,7 +78376,7 @@
     </row>
     <row r="54" spans="1:62" s="2" customFormat="1">
       <c r="A54" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" s="5">
         <v>0</v>
@@ -78529,7 +78564,7 @@
     </row>
     <row r="55" spans="1:62" s="2" customFormat="1">
       <c r="A55" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="2">
         <v>0</v>
@@ -78717,7 +78752,7 @@
     </row>
     <row r="56" spans="1:62" s="2" customFormat="1">
       <c r="A56" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="2">
         <v>0</v>
@@ -78905,7 +78940,7 @@
     </row>
     <row r="57" spans="1:62" s="2" customFormat="1">
       <c r="A57" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="5">
         <v>0</v>
@@ -79093,7 +79128,7 @@
     </row>
     <row r="58" spans="1:62" s="2" customFormat="1">
       <c r="A58" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" s="5">
         <v>0</v>
@@ -79281,7 +79316,7 @@
     </row>
     <row r="59" spans="1:62">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="1">
         <f>SUM(B2:B58)</f>
@@ -79531,6 +79566,11 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -79543,18 +79583,18 @@
       <selection activeCell="C41" sqref="C41"/>
       <selection pane="topRight" activeCell="C41" sqref="C41"/>
       <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
-      <selection pane="bottomRight" activeCell="AP27" sqref="AP27"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="62" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
+    <col min="2" max="62" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1">
         <v>1950</v>
@@ -83502,7 +83542,7 @@
     </row>
     <row r="22" spans="1:62" s="2" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B22" s="2">
         <v>187410</v>
@@ -83690,7 +83730,7 @@
     </row>
     <row r="23" spans="1:62" s="2" customFormat="1">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -83878,7 +83918,7 @@
     </row>
     <row r="24" spans="1:62" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2">
         <v>94928</v>
@@ -84066,7 +84106,7 @@
     </row>
     <row r="25" spans="1:62" s="2" customFormat="1">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2">
         <v>42692000</v>
@@ -84254,7 +84294,7 @@
     </row>
     <row r="26" spans="1:62" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2">
         <v>120490</v>
@@ -84442,7 +84482,7 @@
     </row>
     <row r="27" spans="1:62" s="2" customFormat="1">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2">
         <v>94104</v>
@@ -84630,7 +84670,7 @@
     </row>
     <row r="28" spans="1:62" s="2" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="5">
         <v>0</v>
@@ -84818,7 +84858,7 @@
     </row>
     <row r="29" spans="1:62" s="2" customFormat="1">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -85006,7 +85046,7 @@
     </row>
     <row r="30" spans="1:62" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -85194,7 +85234,7 @@
     </row>
     <row r="31" spans="1:62" s="2" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="5">
         <v>0</v>
@@ -85382,7 +85422,7 @@
     </row>
     <row r="32" spans="1:62" s="2" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="5">
         <v>0</v>
@@ -85570,7 +85610,7 @@
     </row>
     <row r="33" spans="1:62" s="2" customFormat="1">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="2">
         <v>2132100</v>
@@ -85758,7 +85798,7 @@
     </row>
     <row r="34" spans="1:62" s="2" customFormat="1">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2">
         <v>361280</v>
@@ -85946,7 +85986,7 @@
     </row>
     <row r="35" spans="1:62" s="2" customFormat="1">
       <c r="A35" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -86134,7 +86174,7 @@
     </row>
     <row r="36" spans="1:62" s="2" customFormat="1">
       <c r="A36" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
@@ -86322,7 +86362,7 @@
     </row>
     <row r="37" spans="1:62" s="2" customFormat="1">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2">
         <v>69027</v>
@@ -86510,7 +86550,7 @@
     </row>
     <row r="38" spans="1:62" s="2" customFormat="1">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2">
         <v>41250</v>
@@ -86698,7 +86738,7 @@
     </row>
     <row r="39" spans="1:62" s="2" customFormat="1">
       <c r="A39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="2">
         <v>75130</v>
@@ -86886,7 +86926,7 @@
     </row>
     <row r="40" spans="1:62" s="2" customFormat="1">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -87074,7 +87114,7 @@
     </row>
     <row r="41" spans="1:62" s="2" customFormat="1">
       <c r="A41" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -87262,7 +87302,7 @@
     </row>
     <row r="42" spans="1:62" s="2" customFormat="1">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
@@ -87450,7 +87490,7 @@
     </row>
     <row r="43" spans="1:62" s="2" customFormat="1">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
@@ -87638,7 +87678,7 @@
     </row>
     <row r="44" spans="1:62" s="2" customFormat="1">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
@@ -87826,7 +87866,7 @@
     </row>
     <row r="45" spans="1:62" s="2" customFormat="1">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
@@ -88014,7 +88054,7 @@
     </row>
     <row r="46" spans="1:62" s="2" customFormat="1">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -88202,7 +88242,7 @@
     </row>
     <row r="47" spans="1:62" s="2" customFormat="1">
       <c r="A47" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
@@ -88390,7 +88430,7 @@
     </row>
     <row r="48" spans="1:62" s="2" customFormat="1">
       <c r="A48" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="5">
         <v>0</v>
@@ -88578,7 +88618,7 @@
     </row>
     <row r="49" spans="1:62" s="2" customFormat="1">
       <c r="A49" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="5">
         <v>0</v>
@@ -88766,7 +88806,7 @@
     </row>
     <row r="50" spans="1:62" s="2" customFormat="1">
       <c r="A50" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="5">
         <v>0</v>
@@ -88954,7 +88994,7 @@
     </row>
     <row r="51" spans="1:62" s="1" customFormat="1">
       <c r="A51" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="5">
         <v>0</v>
@@ -89142,7 +89182,7 @@
     </row>
     <row r="52" spans="1:62" s="2" customFormat="1">
       <c r="A52" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" s="5">
         <v>0</v>
@@ -89330,7 +89370,7 @@
     </row>
     <row r="53" spans="1:62" s="2" customFormat="1">
       <c r="A53" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" s="5">
         <v>0</v>
@@ -89518,7 +89558,7 @@
     </row>
     <row r="54" spans="1:62" s="2" customFormat="1">
       <c r="A54" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" s="5">
         <v>0</v>
@@ -89706,7 +89746,7 @@
     </row>
     <row r="55" spans="1:62" s="2" customFormat="1">
       <c r="A55" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="2">
         <v>0</v>
@@ -89894,7 +89934,7 @@
     </row>
     <row r="56" spans="1:62" s="2" customFormat="1">
       <c r="A56" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="2">
         <v>0</v>
@@ -90082,7 +90122,7 @@
     </row>
     <row r="57" spans="1:62" s="2" customFormat="1">
       <c r="A57" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="5">
         <v>0</v>
@@ -90270,7 +90310,7 @@
     </row>
     <row r="58" spans="1:62" s="2" customFormat="1">
       <c r="A58" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" s="5">
         <v>0</v>
@@ -90458,7 +90498,7 @@
     </row>
     <row r="59" spans="1:62">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="1">
         <f>SUM(B2:B58)</f>
@@ -90713,7 +90753,12 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -90721,127 +90766,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>